--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8A12B2B1-442D-CE44-9469-CDCFF5143FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{99F354F8-5A40-D14C-A890-389BEB3FA1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="940" windowWidth="17040" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>8 - Ticklers</t>
-  </si>
-  <si>
     <t>Vehement Capital</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Propane and Propane Accessories</t>
   </si>
   <si>
-    <t>20 - Paid off</t>
-  </si>
-  <si>
     <t>Gringotts Bank</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>702 SW 8th St, Bentonvile, AR</t>
   </si>
   <si>
-    <t>43 No tickelrs</t>
-  </si>
-  <si>
     <t>Pfizer Incorporated</t>
   </si>
   <si>
@@ -520,9 +511,6 @@
     <t>Av. Brig. Faria Lima, 2170, Sao Jose dos Campso, Brazil</t>
   </si>
   <si>
-    <t>70  PB</t>
-  </si>
-  <si>
     <t>Cemex</t>
   </si>
   <si>
@@ -568,9 +556,6 @@
     <t>Cement and Energy</t>
   </si>
   <si>
-    <t>77 - Tranfered t o HQ</t>
-  </si>
-  <si>
     <t>S.A.C.I. Falabella</t>
   </si>
   <si>
@@ -583,9 +568,6 @@
     <t>Fast Food</t>
   </si>
   <si>
-    <t>79 Brazil</t>
-  </si>
-  <si>
     <t>JBS Sociedad Anonima</t>
   </si>
   <si>
@@ -716,6 +698,24 @@
   </si>
   <si>
     <t>ONE SOUTH WACKER DRIVE SUITE 1800, Chicago, USA</t>
+  </si>
+  <si>
+    <t>10008 - Ticklers</t>
+  </si>
+  <si>
+    <t>10077 - Tranfered t o HQ</t>
+  </si>
+  <si>
+    <t>10079 Brazil</t>
+  </si>
+  <si>
+    <t>10043 No tickelrs</t>
+  </si>
+  <si>
+    <t>10020 - Paid off</t>
+  </si>
+  <si>
+    <t>10070  PB</t>
   </si>
 </sst>
 </file>
@@ -1578,12 +1578,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
@@ -1595,21 +1596,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1626,10 +1627,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>10002</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1643,10 +1644,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>10003</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1654,7 +1655,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>10004</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1668,10 +1669,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>10005</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>10005</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1682,10 +1683,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+        <v>10006</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -1699,10 +1697,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>10007</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>10007</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1713,353 +1711,347 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>10008</v>
       </c>
       <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>10009</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10009</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
+        <v>10010</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>10011</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>10011</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>10012</v>
       </c>
       <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>10013</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>10013</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>10014</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>10014</v>
       </c>
       <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>10015</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>10015</v>
       </c>
       <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>10016</v>
       </c>
       <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>10017</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>10017</v>
       </c>
       <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
+        <v>10018</v>
       </c>
       <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>46</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>10019</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>10019</v>
       </c>
       <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>10020</v>
       </c>
       <c r="B21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
         <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>10021</v>
       </c>
       <c r="B22">
-        <v>21</v>
+        <v>10021</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>10022</v>
       </c>
       <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>10023</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>10023</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>10024</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>10024</v>
       </c>
       <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
         <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>10025</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>10025</v>
       </c>
       <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>10026</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>10027</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>10027</v>
       </c>
       <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
         <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>10028</v>
       </c>
       <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
         <v>71</v>
-      </c>
-      <c r="D29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>10029</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>10029</v>
       </c>
       <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" t="s">
         <v>74</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>10030</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>10030</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>10031</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
@@ -2067,27 +2059,27 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>10032</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>10033</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>10033</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
         <v>19</v>
@@ -2095,89 +2087,89 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>10034</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>10034</v>
       </c>
       <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" t="s">
         <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>10035</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>10036</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>10036</v>
       </c>
       <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" t="s">
         <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>10037</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>10037</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>10038</v>
       </c>
       <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
         <v>94</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>10039</v>
       </c>
       <c r="C40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
@@ -2185,58 +2177,58 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>10040</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>10040</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>10041</v>
       </c>
       <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" t="s">
         <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>10042</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>10042</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>10043</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s">
         <v>17</v>
@@ -2244,428 +2236,428 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>10044</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>10045</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>10046</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>10046</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>10047</v>
       </c>
       <c r="B48">
-        <v>47</v>
+        <v>10047</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>10048</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>10048</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>10049</v>
       </c>
       <c r="C50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>10050</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>10051</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>10051</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>10052</v>
       </c>
       <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D53" t="s">
-        <v>128</v>
-      </c>
-      <c r="E53" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>10053</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>10054</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>10055</v>
       </c>
       <c r="B56">
-        <v>55</v>
+        <v>10055</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>10056</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>10057</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>10057</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>10058</v>
       </c>
       <c r="B59">
-        <v>58</v>
+        <v>10058</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>10059</v>
       </c>
       <c r="C60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>60</v>
+        <v>10060</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>10060</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>61</v>
+        <v>10061</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>10061</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D62" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>62</v>
+        <v>10062</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>10062</v>
       </c>
       <c r="C63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>63</v>
+        <v>10063</v>
       </c>
       <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" t="s">
         <v>149</v>
-      </c>
-      <c r="C64" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>64</v>
+        <v>10064</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>65</v>
+        <v>10065</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E66" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>66</v>
+        <v>10066</v>
       </c>
       <c r="B67">
-        <v>66</v>
+        <v>10066</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>67</v>
+        <v>10067</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>68</v>
+        <v>10068</v>
       </c>
       <c r="B69">
-        <v>68</v>
+        <v>10068</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>69</v>
+        <v>10069</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>10069</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>70</v>
+        <v>10070</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>71</v>
+        <v>10071</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>72</v>
+        <v>10072</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D73" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>73</v>
+        <v>10073</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>10073</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -2673,400 +2665,400 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>74</v>
+        <v>10074</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>75</v>
+        <v>10075</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>76</v>
+        <v>10076</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>10076</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>77</v>
+        <v>10077</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>78</v>
+        <v>10078</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>79</v>
+        <v>10079</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>80</v>
+        <v>10080</v>
       </c>
       <c r="B81">
-        <v>80</v>
+        <v>10080</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E81" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>81</v>
+        <v>10081</v>
       </c>
       <c r="B82">
-        <v>81</v>
+        <v>10081</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E82" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>82</v>
+        <v>10082</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E83" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>83</v>
+        <v>10083</v>
       </c>
       <c r="B84">
-        <v>83</v>
+        <v>10083</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>84</v>
+        <v>10084</v>
       </c>
       <c r="C85" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>85</v>
+        <v>10085</v>
       </c>
       <c r="B86">
-        <v>85</v>
+        <v>10085</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>86</v>
+        <v>10086</v>
       </c>
       <c r="B87">
-        <v>86</v>
+        <v>10086</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D87" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>87</v>
+        <v>10087</v>
       </c>
       <c r="B88">
-        <v>87</v>
+        <v>10087</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E88" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>88</v>
+        <v>10088</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E89" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>89</v>
+        <v>10089</v>
       </c>
       <c r="B90">
-        <v>89</v>
+        <v>10089</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D90" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>90</v>
+        <v>10090</v>
       </c>
       <c r="B91">
-        <v>90</v>
+        <v>10090</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E91" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>10091</v>
       </c>
       <c r="B92">
-        <v>91</v>
+        <v>10091</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>92</v>
+        <v>10092</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E93" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>93</v>
+        <v>10093</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>10093</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>94</v>
+        <v>10094</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <v>10094</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>95</v>
+        <v>10095</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D96" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>96</v>
+        <v>10096</v>
       </c>
       <c r="B97">
-        <v>96</v>
+        <v>10096</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>97</v>
+        <v>10097</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D98" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>98</v>
+        <v>10098</v>
       </c>
       <c r="B99">
-        <v>99</v>
+        <v>10098</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>99</v>
+        <v>10099</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D100" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E100" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>100</v>
+        <v>10100</v>
       </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>101</v>
+        <v>10101</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D102" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{99F354F8-5A40-D14C-A890-389BEB3FA1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90D383A3-A160-1041-BAD8-A07516BF0AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="940" windowWidth="17040" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
   <si>
     <t>Verify_ID</t>
   </si>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="C81" zoomScale="133" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3046,6 +3046,9 @@
       <c r="D101" t="s">
         <v>225</v>
       </c>
+      <c r="E101" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90D383A3-A160-1041-BAD8-A07516BF0AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90EE2C90-7DC9-AA43-A94D-20DF0D111CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="940" windowWidth="17040" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="17040" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary_Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="234">
   <si>
     <t>Verify_ID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>1 - Financials</t>
-  </si>
-  <si>
     <t>Acme Corp</t>
   </si>
   <si>
@@ -716,6 +713,15 @@
   </si>
   <si>
     <t>10070  PB</t>
+  </si>
+  <si>
+    <t>10001 - Financials</t>
+  </si>
+  <si>
+    <t>10098 - Lorem</t>
+  </si>
+  <si>
+    <t>temp</t>
   </si>
 </sst>
 </file>
@@ -1576,56 +1582,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C81" zoomScale="133" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>10001</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1633,16 +1646,19 @@
         <v>10002</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1650,24 +1666,30 @@
         <v>10003</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10004</v>
       </c>
+      <c r="B5">
+        <v>10004</v>
+      </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1675,27 +1697,33 @@
         <v>10005</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10006</v>
       </c>
+      <c r="B7">
+        <v>10006</v>
+      </c>
       <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1703,27 +1731,33 @@
         <v>10007</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>10008</v>
       </c>
-      <c r="B9" t="s">
-        <v>226</v>
+      <c r="B9">
+        <v>10008</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1731,24 +1765,30 @@
         <v>10009</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10010</v>
       </c>
+      <c r="B11">
+        <v>10010</v>
+      </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1756,30 +1796,36 @@
         <v>10011</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10012</v>
       </c>
+      <c r="B13">
+        <v>10012</v>
+      </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1787,13 +1833,16 @@
         <v>10013</v>
       </c>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -1801,16 +1850,19 @@
         <v>10014</v>
       </c>
       <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -1818,27 +1870,33 @@
         <v>10015</v>
       </c>
       <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>10016</v>
       </c>
+      <c r="B17">
+        <v>10016</v>
+      </c>
       <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -1846,27 +1904,33 @@
         <v>10017</v>
       </c>
       <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10018</v>
       </c>
+      <c r="B19">
+        <v>10018</v>
+      </c>
       <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -1874,30 +1938,36 @@
         <v>10019</v>
       </c>
       <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>10020</v>
       </c>
-      <c r="B21" t="s">
-        <v>230</v>
+      <c r="B21">
+        <v>10020</v>
       </c>
       <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -1905,27 +1975,33 @@
         <v>10021</v>
       </c>
       <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
         <v>52</v>
       </c>
-      <c r="E22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>10022</v>
       </c>
+      <c r="B23">
+        <v>10022</v>
+      </c>
       <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -1933,13 +2009,16 @@
         <v>10023</v>
       </c>
       <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -1947,16 +2026,19 @@
         <v>10024</v>
       </c>
       <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>10024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -1964,27 +2046,33 @@
         <v>10025</v>
       </c>
       <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>10026</v>
       </c>
+      <c r="B27">
+        <v>10026</v>
+      </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -1992,30 +2080,36 @@
         <v>10027</v>
       </c>
       <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>67</v>
       </c>
-      <c r="E28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>10027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10028</v>
       </c>
+      <c r="B29">
+        <v>10028</v>
+      </c>
       <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
         <v>69</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>70</v>
       </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -2023,16 +2117,19 @@
         <v>10029</v>
       </c>
       <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>73</v>
       </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10030</v>
       </c>
@@ -2040,35 +2137,44 @@
         <v>10030</v>
       </c>
       <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
         <v>75</v>
       </c>
-      <c r="E31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>10030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>10031</v>
       </c>
+      <c r="B32">
+        <v>10031</v>
+      </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10032</v>
       </c>
+      <c r="B33">
+        <v>10032</v>
+      </c>
       <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
         <v>78</v>
       </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10033</v>
       </c>
@@ -2076,16 +2182,19 @@
         <v>10033</v>
       </c>
       <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
         <v>80</v>
       </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
       <c r="E34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>10033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10034</v>
       </c>
@@ -2093,27 +2202,33 @@
         <v>10034</v>
       </c>
       <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>83</v>
       </c>
-      <c r="E35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10035</v>
       </c>
+      <c r="B36">
+        <v>10035</v>
+      </c>
       <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
         <v>85</v>
       </c>
-      <c r="E36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10036</v>
       </c>
@@ -2121,16 +2236,19 @@
         <v>10036</v>
       </c>
       <c r="C37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" t="s">
         <v>87</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>88</v>
       </c>
-      <c r="E37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>10036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10037</v>
       </c>
@@ -2138,44 +2256,53 @@
         <v>10037</v>
       </c>
       <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
         <v>90</v>
       </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
       <c r="E38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>10037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10038</v>
       </c>
+      <c r="B39">
+        <v>10038</v>
+      </c>
       <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
         <v>92</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>93</v>
       </c>
-      <c r="E39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>10039</v>
       </c>
+      <c r="B40">
+        <v>10039</v>
+      </c>
       <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
         <v>95</v>
       </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
       <c r="E40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10040</v>
       </c>
@@ -2183,24 +2310,30 @@
         <v>10040</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F41">
+        <v>10040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>10041</v>
       </c>
+      <c r="B42">
+        <v>10041</v>
+      </c>
       <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
         <v>98</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>99</v>
       </c>
-      <c r="E42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10042</v>
       </c>
@@ -2208,61 +2341,73 @@
         <v>10042</v>
       </c>
       <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
         <v>101</v>
       </c>
-      <c r="D43" t="s">
-        <v>102</v>
-      </c>
       <c r="E43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <v>10042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>10043</v>
       </c>
-      <c r="B44" t="s">
-        <v>229</v>
+      <c r="B44">
+        <v>10043</v>
       </c>
       <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
         <v>103</v>
       </c>
-      <c r="D44" t="s">
-        <v>104</v>
-      </c>
       <c r="E44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>10044</v>
       </c>
       <c r="B45">
+        <v>10044</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10045</v>
       </c>
+      <c r="B46">
+        <v>10045</v>
+      </c>
       <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
         <v>107</v>
       </c>
-      <c r="D46" t="s">
-        <v>108</v>
-      </c>
       <c r="E46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10046</v>
       </c>
@@ -2270,10 +2415,13 @@
         <v>10046</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="F47">
+        <v>10046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10047</v>
       </c>
@@ -2281,16 +2429,19 @@
         <v>10047</v>
       </c>
       <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
         <v>110</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>111</v>
       </c>
-      <c r="E48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>10047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10048</v>
       </c>
@@ -2298,44 +2449,53 @@
         <v>10048</v>
       </c>
       <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
         <v>113</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>114</v>
       </c>
-      <c r="E49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>10048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10049</v>
       </c>
+      <c r="B50">
+        <v>10049</v>
+      </c>
       <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
         <v>116</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>117</v>
       </c>
-      <c r="E50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10050</v>
       </c>
+      <c r="B51">
+        <v>10050</v>
+      </c>
       <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
         <v>119</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>120</v>
       </c>
-      <c r="E51" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10051</v>
       </c>
@@ -2343,55 +2503,67 @@
         <v>10051</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="F52">
+        <v>10051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10052</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>10052</v>
+      </c>
+      <c r="C53" t="s">
         <v>123</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>124</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>125</v>
       </c>
-      <c r="E53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10053</v>
       </c>
+      <c r="B54">
+        <v>10053</v>
+      </c>
       <c r="C54" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" t="s">
         <v>127</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>128</v>
       </c>
-      <c r="E54" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>10054</v>
       </c>
+      <c r="B55">
+        <v>10054</v>
+      </c>
       <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
         <v>130</v>
       </c>
-      <c r="D55" t="s">
-        <v>131</v>
-      </c>
       <c r="E55" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10055</v>
       </c>
@@ -2399,21 +2571,27 @@
         <v>10055</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="F56">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>10056</v>
       </c>
+      <c r="B57">
+        <v>10056</v>
+      </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10057</v>
       </c>
@@ -2421,16 +2599,19 @@
         <v>10057</v>
       </c>
       <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" t="s">
         <v>134</v>
       </c>
-      <c r="D58" t="s">
-        <v>135</v>
-      </c>
       <c r="E58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="F58">
+        <v>10057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10058</v>
       </c>
@@ -2438,24 +2619,30 @@
         <v>10058</v>
       </c>
       <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
         <v>136</v>
       </c>
-      <c r="D59" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>10058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10059</v>
       </c>
+      <c r="B60">
+        <v>10059</v>
+      </c>
       <c r="C60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" t="s">
         <v>138</v>
       </c>
-      <c r="E60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10060</v>
       </c>
@@ -2463,16 +2650,19 @@
         <v>10060</v>
       </c>
       <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" t="s">
         <v>140</v>
       </c>
-      <c r="D61" t="s">
-        <v>141</v>
-      </c>
       <c r="E61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="F61">
+        <v>10060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10061</v>
       </c>
@@ -2480,16 +2670,19 @@
         <v>10061</v>
       </c>
       <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" t="s">
         <v>142</v>
       </c>
-      <c r="D62" t="s">
-        <v>143</v>
-      </c>
       <c r="E62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F62">
+        <v>10061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10062</v>
       </c>
@@ -2497,55 +2690,67 @@
         <v>10062</v>
       </c>
       <c r="C63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" t="s">
         <v>144</v>
       </c>
-      <c r="E63" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>10062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>10063</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>10063</v>
+      </c>
+      <c r="C64" t="s">
         <v>146</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>147</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>148</v>
       </c>
-      <c r="E64" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10064</v>
       </c>
+      <c r="B65">
+        <v>10064</v>
+      </c>
       <c r="C65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" t="s">
         <v>150</v>
       </c>
-      <c r="D65" t="s">
-        <v>151</v>
-      </c>
       <c r="E65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10065</v>
       </c>
+      <c r="B66">
+        <v>10065</v>
+      </c>
       <c r="C66" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" t="s">
         <v>152</v>
       </c>
-      <c r="E66" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10066</v>
       </c>
@@ -2553,30 +2758,36 @@
         <v>10066</v>
       </c>
       <c r="C67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" t="s">
         <v>154</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>155</v>
       </c>
-      <c r="E67" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>10066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>10067</v>
       </c>
+      <c r="B68">
+        <v>10067</v>
+      </c>
       <c r="C68" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" t="s">
         <v>157</v>
       </c>
-      <c r="D68" t="s">
-        <v>158</v>
-      </c>
       <c r="E68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10068</v>
       </c>
@@ -2584,13 +2795,16 @@
         <v>10068</v>
       </c>
       <c r="C69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" t="s">
         <v>159</v>
       </c>
-      <c r="E69" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>10068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10069</v>
       </c>
@@ -2598,58 +2812,70 @@
         <v>10069</v>
       </c>
       <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="s">
         <v>161</v>
       </c>
-      <c r="D70" t="s">
-        <v>162</v>
-      </c>
       <c r="E70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="F70">
+        <v>10069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>10070</v>
       </c>
-      <c r="B71" t="s">
-        <v>231</v>
+      <c r="B71">
+        <v>10070</v>
       </c>
       <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" t="s">
         <v>163</v>
       </c>
-      <c r="E71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>10071</v>
       </c>
+      <c r="B72">
+        <v>10071</v>
+      </c>
       <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
         <v>165</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>166</v>
       </c>
-      <c r="E72" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10072</v>
       </c>
+      <c r="B73">
+        <v>10072</v>
+      </c>
       <c r="C73" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" t="s">
         <v>168</v>
       </c>
-      <c r="D73" t="s">
-        <v>169</v>
-      </c>
       <c r="E73" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10073</v>
       </c>
@@ -2657,38 +2883,47 @@
         <v>10073</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>10073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>10074</v>
       </c>
+      <c r="B75">
+        <v>10074</v>
+      </c>
       <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="s">
         <v>171</v>
       </c>
-      <c r="D75" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>10075</v>
       </c>
+      <c r="B76">
+        <v>10075</v>
+      </c>
       <c r="C76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" t="s">
         <v>173</v>
       </c>
-      <c r="D76" t="s">
-        <v>174</v>
-      </c>
       <c r="E76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10076</v>
       </c>
@@ -2696,58 +2931,70 @@
         <v>10076</v>
       </c>
       <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="s">
         <v>175</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>176</v>
       </c>
-      <c r="E77" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>10076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>10077</v>
       </c>
-      <c r="B78" t="s">
-        <v>227</v>
+      <c r="B78">
+        <v>10077</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F78" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10078</v>
       </c>
+      <c r="B79">
+        <v>10078</v>
+      </c>
       <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" t="s">
         <v>179</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>180</v>
       </c>
-      <c r="E79" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>10079</v>
       </c>
-      <c r="B80" t="s">
-        <v>228</v>
+      <c r="B80">
+        <v>10079</v>
       </c>
       <c r="C80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" t="s">
         <v>182</v>
       </c>
-      <c r="D80" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10080</v>
       </c>
@@ -2755,16 +3002,19 @@
         <v>10080</v>
       </c>
       <c r="C81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" t="s">
         <v>184</v>
       </c>
-      <c r="D81" t="s">
-        <v>185</v>
-      </c>
       <c r="E81" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="F81">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10081</v>
       </c>
@@ -2772,27 +3022,33 @@
         <v>10081</v>
       </c>
       <c r="C82" t="s">
+        <v>185</v>
+      </c>
+      <c r="E82" t="s">
         <v>186</v>
       </c>
-      <c r="E82" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>10082</v>
       </c>
+      <c r="B83">
+        <v>10082</v>
+      </c>
       <c r="C83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" t="s">
         <v>188</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>189</v>
       </c>
-      <c r="E83" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10083</v>
       </c>
@@ -2800,27 +3056,33 @@
         <v>10083</v>
       </c>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E84" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="F84">
+        <v>10083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>10084</v>
       </c>
+      <c r="B85">
+        <v>10084</v>
+      </c>
       <c r="C85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" t="s">
         <v>192</v>
       </c>
-      <c r="D85" t="s">
-        <v>193</v>
-      </c>
       <c r="E85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10085</v>
       </c>
@@ -2828,13 +3090,16 @@
         <v>10085</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>10085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10086</v>
       </c>
@@ -2842,16 +3107,19 @@
         <v>10086</v>
       </c>
       <c r="C87" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" t="s">
         <v>195</v>
       </c>
-      <c r="D87" t="s">
-        <v>196</v>
-      </c>
       <c r="E87" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="F87">
+        <v>10086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10087</v>
       </c>
@@ -2859,27 +3127,33 @@
         <v>10087</v>
       </c>
       <c r="C88" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" t="s">
         <v>197</v>
       </c>
-      <c r="D88" t="s">
-        <v>198</v>
-      </c>
       <c r="E88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F88">
+        <v>10087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10088</v>
       </c>
+      <c r="B89">
+        <v>10088</v>
+      </c>
       <c r="C89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10089</v>
       </c>
@@ -2887,13 +3161,16 @@
         <v>10089</v>
       </c>
       <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="D90" t="s">
         <v>200</v>
       </c>
-      <c r="D90" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>10089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10090</v>
       </c>
@@ -2901,16 +3178,19 @@
         <v>10090</v>
       </c>
       <c r="C91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" t="s">
         <v>202</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>203</v>
       </c>
-      <c r="E91" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>10090</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10091</v>
       </c>
@@ -2918,27 +3198,33 @@
         <v>10091</v>
       </c>
       <c r="C92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F92">
+        <v>10091</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10092</v>
       </c>
+      <c r="B93">
+        <v>10092</v>
+      </c>
       <c r="C93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E93" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10093</v>
       </c>
@@ -2946,16 +3232,19 @@
         <v>10093</v>
       </c>
       <c r="C94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" t="s">
         <v>206</v>
       </c>
-      <c r="D94" t="s">
-        <v>207</v>
-      </c>
       <c r="E94" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F94">
+        <v>10093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10094</v>
       </c>
@@ -2963,24 +3252,30 @@
         <v>10094</v>
       </c>
       <c r="C95" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" t="s">
         <v>208</v>
       </c>
-      <c r="E95" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>10094</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>10095</v>
       </c>
+      <c r="B96">
+        <v>10095</v>
+      </c>
       <c r="C96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" t="s">
         <v>210</v>
       </c>
-      <c r="D96" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10096</v>
       </c>
@@ -2988,27 +3283,33 @@
         <v>10096</v>
       </c>
       <c r="C97" t="s">
+        <v>211</v>
+      </c>
+      <c r="E97" t="s">
         <v>212</v>
       </c>
-      <c r="E97" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>10096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>10097</v>
       </c>
+      <c r="B98">
+        <v>10097</v>
+      </c>
       <c r="C98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" t="s">
         <v>214</v>
       </c>
-      <c r="D98" t="s">
-        <v>215</v>
-      </c>
       <c r="E98" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>10098</v>
       </c>
@@ -3016,52 +3317,64 @@
         <v>10098</v>
       </c>
       <c r="C99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E99" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>10099</v>
       </c>
+      <c r="B100">
+        <v>10099</v>
+      </c>
       <c r="C100" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" t="s">
         <v>217</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>218</v>
       </c>
-      <c r="E100" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10100</v>
       </c>
+      <c r="B101">
+        <v>10100</v>
+      </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10101</v>
       </c>
+      <c r="B102">
+        <v>10101</v>
+      </c>
       <c r="C102" t="s">
+        <v>223</v>
+      </c>
+      <c r="D102" t="s">
         <v>224</v>
       </c>
-      <c r="D102" t="s">
-        <v>225</v>
-      </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{90EE2C90-7DC9-AA43-A94D-20DF0D111CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B112D-E703-0641-B8D6-0987F88A2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="17040" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="234">
-  <si>
-    <t>Verify_ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="233">
   <si>
     <t>Address</t>
   </si>
@@ -388,9 +385,6 @@
     <t>Oracle Corporration</t>
   </si>
   <si>
-    <t>52 Paid off 06/2023</t>
-  </si>
-  <si>
     <t>Nike, Incorporated</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>Telecommmunications</t>
   </si>
   <si>
-    <t>63 - 2025/10/1</t>
-  </si>
-  <si>
     <t>Vale Sociedad Anonima</t>
   </si>
   <si>
@@ -722,13 +713,19 @@
   </si>
   <si>
     <t>temp</t>
+  </si>
+  <si>
+    <t>10063 - 2025/10/1</t>
+  </si>
+  <si>
+    <t>10052 Paid off 06/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -859,6 +856,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1205,8 +1209,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1582,48 +1587,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" t="s">
-        <v>219</v>
-      </c>
       <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10001</v>
-      </c>
-      <c r="B2">
-        <v>10001</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1631,19 +1632,16 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3">
-        <v>10002</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1651,33 +1649,24 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>10002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10003</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>10003</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="F4">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10004</v>
-      </c>
-      <c r="B5">
-        <v>10004</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1685,33 +1674,27 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10005</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>10005</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="F6">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10006</v>
-      </c>
-      <c r="B7">
-        <v>10006</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1719,81 +1702,69 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10007</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
         <v>10007</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="F8">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>10008</v>
-      </c>
-      <c r="B9">
-        <v>10008</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10009</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
         <v>10009</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>22</v>
-      </c>
-      <c r="F10">
-        <v>10009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10010</v>
-      </c>
-      <c r="B11">
-        <v>10010</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10011</v>
       </c>
-      <c r="B12">
-        <v>10011</v>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1801,19 +1772,13 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="F12">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10012</v>
-      </c>
-      <c r="B13">
-        <v>10012</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1821,33 +1786,30 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10013</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
         <v>10013</v>
       </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10014</v>
       </c>
-      <c r="B15">
-        <v>10014</v>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
@@ -1855,19 +1817,16 @@
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
         <v>10014</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10015</v>
       </c>
-      <c r="B16">
-        <v>10015</v>
+      <c r="B16" t="s">
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1875,50 +1834,38 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>10015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="F16">
-        <v>10015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17">
         <v>10016</v>
       </c>
-      <c r="B17">
-        <v>10016</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10017</v>
       </c>
-      <c r="B18">
-        <v>10017</v>
+      <c r="B18" t="s">
+        <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18">
+        <v>10017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>42</v>
-      </c>
-      <c r="F18">
-        <v>10017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>10018</v>
-      </c>
-      <c r="B19">
-        <v>10018</v>
       </c>
       <c r="C19" t="s">
         <v>43</v>
@@ -1926,16 +1873,16 @@
       <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>10018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10019</v>
       </c>
-      <c r="B20">
-        <v>10019</v>
+      <c r="B20" t="s">
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -1943,53 +1890,41 @@
       <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>10019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="F20">
-        <v>10019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21">
         <v>10020</v>
       </c>
-      <c r="B21">
-        <v>10020</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10021</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22">
         <v>10021</v>
       </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>52</v>
-      </c>
-      <c r="F22">
-        <v>10021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>10022</v>
-      </c>
-      <c r="B23">
-        <v>10022</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -1997,33 +1932,30 @@
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>10022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10023</v>
       </c>
-      <c r="B24">
-        <v>10023</v>
+      <c r="B24" t="s">
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
         <v>10023</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10024</v>
       </c>
-      <c r="B25">
-        <v>10024</v>
+      <c r="B25" t="s">
+        <v>57</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
@@ -2031,19 +1963,16 @@
       <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25">
+      <c r="E25">
         <v>10024</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10025</v>
       </c>
-      <c r="B26">
-        <v>10025</v>
+      <c r="B26" t="s">
+        <v>60</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
@@ -2051,33 +1980,27 @@
       <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="F26">
-        <v>10025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
         <v>10026</v>
       </c>
-      <c r="B27">
-        <v>10026</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10027</v>
       </c>
-      <c r="B28">
-        <v>10027</v>
+      <c r="B28" t="s">
+        <v>64</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -2085,19 +2008,13 @@
       <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28">
+        <v>10027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>67</v>
-      </c>
-      <c r="F28">
-        <v>10027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>10028</v>
-      </c>
-      <c r="B29">
-        <v>10028</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -2105,16 +2022,16 @@
       <c r="D29" t="s">
         <v>69</v>
       </c>
-      <c r="E29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>10028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10029</v>
       </c>
-      <c r="B30">
-        <v>10029</v>
+      <c r="B30" t="s">
+        <v>70</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
@@ -2122,84 +2039,69 @@
       <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30">
+      <c r="E30">
         <v>10029</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10030</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31">
         <v>10030</v>
       </c>
-      <c r="C31" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>75</v>
       </c>
-      <c r="F31">
-        <v>10030</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
         <v>10031</v>
       </c>
-      <c r="B32">
-        <v>10031</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>10032</v>
-      </c>
-      <c r="B33">
-        <v>10032</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>10032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10033</v>
       </c>
-      <c r="B34">
-        <v>10033</v>
+      <c r="B34" t="s">
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34">
+        <v>17</v>
+      </c>
+      <c r="E34">
         <v>10033</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10034</v>
       </c>
-      <c r="B35">
-        <v>10034</v>
+      <c r="B35" t="s">
+        <v>80</v>
       </c>
       <c r="C35" t="s">
         <v>81</v>
@@ -2207,33 +2109,27 @@
       <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35">
+        <v>10034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>83</v>
       </c>
-      <c r="F35">
-        <v>10034</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36">
         <v>10035</v>
       </c>
-      <c r="B36">
-        <v>10035</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10036</v>
       </c>
-      <c r="B37">
-        <v>10036</v>
+      <c r="B37" t="s">
+        <v>85</v>
       </c>
       <c r="C37" t="s">
         <v>86</v>
@@ -2241,39 +2137,30 @@
       <c r="D37" t="s">
         <v>87</v>
       </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37">
+      <c r="E37">
         <v>10036</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10037</v>
       </c>
-      <c r="B38">
-        <v>10037</v>
+      <c r="B38" t="s">
+        <v>88</v>
       </c>
       <c r="C38" t="s">
         <v>89</v>
       </c>
       <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <v>10037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>90</v>
-      </c>
-      <c r="E38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38">
-        <v>10037</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>10038</v>
-      </c>
-      <c r="B39">
-        <v>10038</v>
       </c>
       <c r="C39" t="s">
         <v>91</v>
@@ -2281,47 +2168,38 @@
       <c r="D39" t="s">
         <v>92</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39">
+        <v>10038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>10039</v>
-      </c>
-      <c r="B40">
-        <v>10039</v>
       </c>
       <c r="C40" t="s">
         <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>10039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10040</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41">
         <v>10040</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>96</v>
-      </c>
-      <c r="F41">
-        <v>10040</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>10041</v>
-      </c>
-      <c r="B42">
-        <v>10041</v>
       </c>
       <c r="C42" t="s">
         <v>97</v>
@@ -2329,104 +2207,89 @@
       <c r="D42" t="s">
         <v>98</v>
       </c>
-      <c r="E42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10042</v>
       </c>
-      <c r="B43">
-        <v>10042</v>
+      <c r="B43" t="s">
+        <v>99</v>
       </c>
       <c r="C43" t="s">
         <v>100</v>
       </c>
       <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43">
+        <v>10042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" t="s">
         <v>101</v>
-      </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43">
-        <v>10042</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>10043</v>
-      </c>
-      <c r="B44">
-        <v>10043</v>
       </c>
       <c r="C44" t="s">
         <v>102</v>
       </c>
       <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>10043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>103</v>
       </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45">
         <v>10044</v>
       </c>
-      <c r="B45">
-        <v>10044</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>105</v>
-      </c>
-      <c r="F45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>10045</v>
-      </c>
-      <c r="B46">
-        <v>10045</v>
       </c>
       <c r="C46" t="s">
         <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E46">
+        <v>10045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10046</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47">
         <v>10046</v>
       </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47">
-        <v>10046</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10047</v>
       </c>
-      <c r="B48">
-        <v>10047</v>
+      <c r="B48" t="s">
+        <v>108</v>
       </c>
       <c r="C48" t="s">
         <v>109</v>
@@ -2434,19 +2297,16 @@
       <c r="D48" t="s">
         <v>110</v>
       </c>
-      <c r="E48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48">
+      <c r="E48">
         <v>10047</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10048</v>
       </c>
-      <c r="B49">
-        <v>10048</v>
+      <c r="B49" t="s">
+        <v>111</v>
       </c>
       <c r="C49" t="s">
         <v>112</v>
@@ -2454,19 +2314,13 @@
       <c r="D49" t="s">
         <v>113</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>10048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>114</v>
-      </c>
-      <c r="F49">
-        <v>10048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>10049</v>
-      </c>
-      <c r="B50">
-        <v>10049</v>
       </c>
       <c r="C50" t="s">
         <v>115</v>
@@ -2474,16 +2328,13 @@
       <c r="D50" t="s">
         <v>116</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>10049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>10050</v>
-      </c>
-      <c r="B51">
-        <v>10050</v>
       </c>
       <c r="C51" t="s">
         <v>118</v>
@@ -2491,890 +2342,737 @@
       <c r="D51" t="s">
         <v>119</v>
       </c>
-      <c r="E51" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10051</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52">
         <v>10051</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>232</v>
+      </c>
+      <c r="B53" t="s">
         <v>121</v>
       </c>
-      <c r="F52">
-        <v>10051</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53">
         <v>10052</v>
       </c>
-      <c r="B53">
-        <v>10052</v>
-      </c>
-      <c r="C53" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>124</v>
       </c>
-      <c r="E53" t="s">
+      <c r="C54" t="s">
         <v>125</v>
       </c>
-      <c r="F53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="D54" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54">
         <v>10053</v>
       </c>
-      <c r="B54">
-        <v>10053</v>
-      </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" t="s">
         <v>126</v>
       </c>
-      <c r="D54" t="s">
-        <v>127</v>
-      </c>
-      <c r="E54" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="E55">
         <v>10054</v>
       </c>
-      <c r="B55">
-        <v>10054</v>
-      </c>
-      <c r="C55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10055</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56">
         <v>10055</v>
       </c>
-      <c r="C56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56">
-        <v>10055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57">
         <v>10056</v>
       </c>
-      <c r="B57">
-        <v>10056</v>
-      </c>
-      <c r="C57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10057</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58">
         <v>10057</v>
       </c>
-      <c r="C58" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58">
-        <v>10057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10058</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59">
         <v>10058</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>135</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>136</v>
       </c>
-      <c r="F59">
-        <v>10058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="E60">
         <v>10059</v>
       </c>
-      <c r="B60">
-        <v>10059</v>
-      </c>
-      <c r="C60" t="s">
-        <v>137</v>
-      </c>
-      <c r="E60" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10060</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61">
         <v>10060</v>
       </c>
-      <c r="C61" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" t="s">
-        <v>138</v>
-      </c>
-      <c r="F61">
-        <v>10060</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10061</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62">
         <v>10061</v>
       </c>
-      <c r="C62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62">
-        <v>10061</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10062</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" t="s">
+        <v>142</v>
+      </c>
+      <c r="E63">
         <v>10062</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" t="s">
         <v>143</v>
       </c>
-      <c r="E63" t="s">
+      <c r="C64" t="s">
         <v>144</v>
       </c>
-      <c r="F63">
-        <v>10062</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+      <c r="E64">
         <v>10063</v>
       </c>
-      <c r="B64">
-        <v>10063</v>
-      </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>146</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C65" t="s">
         <v>147</v>
       </c>
-      <c r="E64" t="s">
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65">
+        <v>10064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>148</v>
       </c>
-      <c r="F64" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>10064</v>
-      </c>
-      <c r="B65">
-        <v>10064</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
         <v>149</v>
       </c>
-      <c r="D65" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="E66">
         <v>10065</v>
       </c>
-      <c r="B66">
-        <v>10065</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10066</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67">
         <v>10066</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>153</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C68" t="s">
         <v>154</v>
       </c>
-      <c r="E67" t="s">
-        <v>155</v>
-      </c>
-      <c r="F67">
-        <v>10066</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68">
         <v>10067</v>
       </c>
-      <c r="B68">
-        <v>10067</v>
-      </c>
-      <c r="C68" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" t="s">
-        <v>157</v>
-      </c>
-      <c r="E68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10068</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E69">
         <v>10068</v>
       </c>
-      <c r="C69" t="s">
-        <v>158</v>
-      </c>
-      <c r="E69" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69">
-        <v>10068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10069</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70">
         <v>10069</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" t="s">
+        <v>159</v>
+      </c>
+      <c r="D71" t="s">
         <v>160</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E71">
+        <v>10070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
         <v>161</v>
       </c>
-      <c r="E70" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70">
-        <v>10069</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>10070</v>
-      </c>
-      <c r="B71">
-        <v>10070</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>162</v>
       </c>
-      <c r="E71" t="s">
+      <c r="D72" t="s">
         <v>163</v>
       </c>
-      <c r="F71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="E72">
         <v>10071</v>
       </c>
-      <c r="B72">
-        <v>10071</v>
-      </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>164</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C73" t="s">
         <v>165</v>
       </c>
-      <c r="E72" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73">
         <v>10072</v>
       </c>
-      <c r="B73">
-        <v>10072</v>
-      </c>
-      <c r="C73" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10073</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74">
         <v>10073</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75">
+        <v>10074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>169</v>
       </c>
-      <c r="E74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74">
-        <v>10073</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>10074</v>
-      </c>
-      <c r="B75">
-        <v>10074</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>170</v>
       </c>
-      <c r="D75" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76">
         <v>10075</v>
       </c>
-      <c r="B76">
-        <v>10075</v>
-      </c>
-      <c r="C76" t="s">
-        <v>172</v>
-      </c>
-      <c r="D76" t="s">
-        <v>173</v>
-      </c>
-      <c r="E76" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10076</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77">
         <v>10076</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
         <v>174</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78">
+        <v>10077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
         <v>175</v>
       </c>
-      <c r="E77" t="s">
+      <c r="C79" t="s">
         <v>176</v>
       </c>
-      <c r="F77">
-        <v>10076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>10077</v>
-      </c>
-      <c r="B78">
-        <v>10077</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D79" t="s">
         <v>177</v>
       </c>
-      <c r="E78" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="E79">
         <v>10078</v>
       </c>
-      <c r="B79">
-        <v>10078</v>
-      </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" t="s">
         <v>178</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C80" t="s">
         <v>179</v>
       </c>
-      <c r="E79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="E80">
         <v>10079</v>
       </c>
-      <c r="B80">
-        <v>10079</v>
-      </c>
-      <c r="C80" t="s">
-        <v>181</v>
-      </c>
-      <c r="D80" t="s">
-        <v>182</v>
-      </c>
-      <c r="F80" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10080</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81">
         <v>10080</v>
       </c>
-      <c r="C81" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" t="s">
-        <v>184</v>
-      </c>
-      <c r="E81" t="s">
-        <v>166</v>
-      </c>
-      <c r="F81">
-        <v>10080</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10081</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="s">
+        <v>182</v>
+      </c>
+      <c r="D82" t="s">
+        <v>183</v>
+      </c>
+      <c r="E82">
         <v>10081</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
         <v>185</v>
       </c>
-      <c r="E82" t="s">
+      <c r="D83" t="s">
         <v>186</v>
       </c>
-      <c r="F82">
-        <v>10081</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="E83">
         <v>10082</v>
       </c>
-      <c r="B83">
-        <v>10082</v>
-      </c>
-      <c r="C83" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" t="s">
-        <v>188</v>
-      </c>
-      <c r="E83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10083</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="D84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84">
         <v>10083</v>
       </c>
-      <c r="C84" t="s">
-        <v>190</v>
-      </c>
-      <c r="E84" t="s">
-        <v>148</v>
-      </c>
-      <c r="F84">
-        <v>10083</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85">
         <v>10084</v>
       </c>
-      <c r="B85">
-        <v>10084</v>
-      </c>
-      <c r="C85" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" t="s">
-        <v>192</v>
-      </c>
-      <c r="E85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10085</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+      <c r="D86" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86">
         <v>10085</v>
       </c>
-      <c r="C86" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" t="s">
-        <v>50</v>
-      </c>
-      <c r="F86">
-        <v>10085</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10086</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87">
         <v>10086</v>
       </c>
-      <c r="C87" t="s">
-        <v>194</v>
-      </c>
-      <c r="D87" t="s">
-        <v>195</v>
-      </c>
-      <c r="E87" t="s">
-        <v>163</v>
-      </c>
-      <c r="F87">
-        <v>10086</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10087</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>194</v>
+      </c>
+      <c r="D88" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88">
         <v>10087</v>
       </c>
-      <c r="C88" t="s">
-        <v>196</v>
-      </c>
-      <c r="D88" t="s">
-        <v>197</v>
-      </c>
-      <c r="E88" t="s">
-        <v>105</v>
-      </c>
-      <c r="F88">
-        <v>10087</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89">
         <v>10088</v>
       </c>
-      <c r="B89">
-        <v>10088</v>
-      </c>
-      <c r="C89" t="s">
-        <v>198</v>
-      </c>
-      <c r="E89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10089</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+      <c r="E90">
         <v>10089</v>
       </c>
-      <c r="C90" t="s">
-        <v>199</v>
-      </c>
-      <c r="D90" t="s">
-        <v>200</v>
-      </c>
-      <c r="F90">
-        <v>10089</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10090</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" t="s">
+        <v>200</v>
+      </c>
+      <c r="E91">
         <v>10090</v>
       </c>
-      <c r="C91" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" t="s">
-        <v>202</v>
-      </c>
-      <c r="E91" t="s">
-        <v>203</v>
-      </c>
-      <c r="F91">
-        <v>10090</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10091</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92">
         <v>10091</v>
       </c>
-      <c r="C92" t="s">
-        <v>141</v>
-      </c>
-      <c r="E92" t="s">
-        <v>105</v>
-      </c>
-      <c r="F92">
-        <v>10091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93">
         <v>10092</v>
       </c>
-      <c r="B93">
-        <v>10092</v>
-      </c>
-      <c r="C93" t="s">
-        <v>146</v>
-      </c>
-      <c r="D93" t="s">
-        <v>204</v>
-      </c>
-      <c r="E93" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10093</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+      <c r="E94">
         <v>10093</v>
       </c>
-      <c r="C94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D94" t="s">
-        <v>206</v>
-      </c>
-      <c r="E94" t="s">
-        <v>117</v>
-      </c>
-      <c r="F94">
-        <v>10093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10094</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="s">
+        <v>204</v>
+      </c>
+      <c r="D95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E95">
         <v>10094</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
         <v>207</v>
       </c>
-      <c r="E95" t="s">
-        <v>208</v>
-      </c>
-      <c r="F95">
-        <v>10094</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="E96">
         <v>10095</v>
       </c>
-      <c r="B96">
-        <v>10095</v>
-      </c>
-      <c r="C96" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10096</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97">
         <v>10096</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" t="s">
         <v>211</v>
       </c>
-      <c r="E97" t="s">
+      <c r="D98" t="s">
+        <v>49</v>
+      </c>
+      <c r="E98">
+        <v>10097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99" t="s">
         <v>212</v>
       </c>
-      <c r="F97">
-        <v>10096</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>10097</v>
-      </c>
-      <c r="B98">
-        <v>10097</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D99" t="s">
+        <v>49</v>
+      </c>
+      <c r="E99">
+        <v>10098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>213</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C100" t="s">
         <v>214</v>
       </c>
-      <c r="E98" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>10098</v>
-      </c>
-      <c r="B99">
-        <v>10098</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D100" t="s">
         <v>215</v>
       </c>
-      <c r="E99" t="s">
-        <v>50</v>
-      </c>
-      <c r="F99" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="E100">
         <v>10099</v>
       </c>
-      <c r="B100">
-        <v>10099</v>
-      </c>
-      <c r="C100" t="s">
-        <v>216</v>
-      </c>
-      <c r="D100" t="s">
-        <v>217</v>
-      </c>
-      <c r="E100" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" t="s">
+        <v>221</v>
+      </c>
+      <c r="D101" t="s">
+        <v>183</v>
+      </c>
+      <c r="E101">
         <v>10100</v>
       </c>
-      <c r="B101">
-        <v>10100</v>
-      </c>
-      <c r="C101" t="s">
-        <v>222</v>
-      </c>
-      <c r="D101" t="s">
-        <v>224</v>
-      </c>
-      <c r="E101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" t="s">
+        <v>221</v>
+      </c>
+      <c r="D102" t="s">
+        <v>183</v>
+      </c>
+      <c r="E102">
         <v>10101</v>
-      </c>
-      <c r="B102">
-        <v>10101</v>
-      </c>
-      <c r="C102" t="s">
-        <v>223</v>
-      </c>
-      <c r="D102" t="s">
-        <v>224</v>
-      </c>
-      <c r="E102" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87B112D-E703-0641-B8D6-0987F88A2575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C712BE-A293-5344-BCA3-BB536CED33B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="17040" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
   <si>
     <t>Address</t>
   </si>
@@ -710,9 +723,6 @@
   </si>
   <si>
     <t>10098 - Lorem</t>
-  </si>
-  <si>
-    <t>temp</t>
   </si>
   <si>
     <t>10063 - 2025/10/1</t>
@@ -725,7 +735,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -856,13 +866,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1209,9 +1212,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1587,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,10 +1601,9 @@
     <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>218</v>
       </c>
@@ -1615,11 +1616,8 @@
       <c r="D1" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>228</v>
       </c>
@@ -1632,11 +1630,8 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1649,22 +1644,16 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1674,11 +1663,8 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1688,11 +1674,8 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1702,11 +1685,8 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>10006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1716,11 +1696,8 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -1730,11 +1707,8 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1744,22 +1718,16 @@
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
-        <v>10009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>10010</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1772,11 +1740,8 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>27</v>
       </c>
@@ -1786,11 +1751,8 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13">
-        <v>10012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1800,11 +1762,8 @@
       <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="E14">
-        <v>10013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -1817,11 +1776,8 @@
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15">
-        <v>10014</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -1834,22 +1790,16 @@
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16">
-        <v>10015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="E17">
-        <v>10016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -1859,11 +1809,8 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-      <c r="E18">
-        <v>10017</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>42</v>
       </c>
@@ -1873,11 +1820,8 @@
       <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19">
-        <v>10018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -1890,11 +1834,8 @@
       <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="E20">
-        <v>10019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -1904,11 +1845,8 @@
       <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="E21">
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -1918,11 +1856,8 @@
       <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="E22">
-        <v>10021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>52</v>
       </c>
@@ -1932,11 +1867,8 @@
       <c r="D23" t="s">
         <v>54</v>
       </c>
-      <c r="E23">
-        <v>10022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -1946,11 +1878,8 @@
       <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="E24">
-        <v>10023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -1963,11 +1892,8 @@
       <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="E25">
-        <v>10024</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -1980,22 +1906,16 @@
       <c r="D26" t="s">
         <v>62</v>
       </c>
-      <c r="E26">
-        <v>10025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
-      <c r="E27">
-        <v>10026</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -2008,11 +1928,8 @@
       <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="E28">
-        <v>10027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>67</v>
       </c>
@@ -2022,11 +1939,8 @@
       <c r="D29" t="s">
         <v>69</v>
       </c>
-      <c r="E29">
-        <v>10028</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -2039,11 +1953,8 @@
       <c r="D30" t="s">
         <v>72</v>
       </c>
-      <c r="E30">
-        <v>10029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10030</v>
       </c>
@@ -2053,33 +1964,24 @@
       <c r="D31" t="s">
         <v>74</v>
       </c>
-      <c r="E31">
-        <v>10030</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>75</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="E32">
-        <v>10031</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>76</v>
       </c>
       <c r="C33" t="s">
         <v>77</v>
       </c>
-      <c r="E33">
-        <v>10032</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>10033</v>
       </c>
@@ -2092,11 +1994,8 @@
       <c r="D34" t="s">
         <v>17</v>
       </c>
-      <c r="E34">
-        <v>10033</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10034</v>
       </c>
@@ -2109,22 +2008,16 @@
       <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="E35">
-        <v>10034</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>83</v>
       </c>
       <c r="D36" t="s">
         <v>84</v>
       </c>
-      <c r="E36">
-        <v>10035</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10036</v>
       </c>
@@ -2137,11 +2030,8 @@
       <c r="D37" t="s">
         <v>87</v>
       </c>
-      <c r="E37">
-        <v>10036</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10037</v>
       </c>
@@ -2154,11 +2044,8 @@
       <c r="D38" t="s">
         <v>29</v>
       </c>
-      <c r="E38">
-        <v>10037</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>90</v>
       </c>
@@ -2168,11 +2055,8 @@
       <c r="D39" t="s">
         <v>92</v>
       </c>
-      <c r="E39">
-        <v>10038</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>93</v>
       </c>
@@ -2182,22 +2066,16 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
-      <c r="E40">
-        <v>10039</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>10040</v>
       </c>
       <c r="B41" t="s">
         <v>95</v>
       </c>
-      <c r="E41">
-        <v>10040</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>96</v>
       </c>
@@ -2207,11 +2085,8 @@
       <c r="D42" t="s">
         <v>98</v>
       </c>
-      <c r="E42">
-        <v>10041</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10042</v>
       </c>
@@ -2224,11 +2099,8 @@
       <c r="D43" t="s">
         <v>39</v>
       </c>
-      <c r="E43">
-        <v>10042</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>225</v>
       </c>
@@ -2241,11 +2113,8 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
-      <c r="E44">
-        <v>10043</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2255,11 +2124,8 @@
       <c r="D45" t="s">
         <v>104</v>
       </c>
-      <c r="E45">
-        <v>10044</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>105</v>
       </c>
@@ -2269,22 +2135,16 @@
       <c r="D46" t="s">
         <v>31</v>
       </c>
-      <c r="E46">
-        <v>10045</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10046</v>
       </c>
       <c r="B47" t="s">
         <v>107</v>
       </c>
-      <c r="E47">
-        <v>10046</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10047</v>
       </c>
@@ -2297,11 +2157,8 @@
       <c r="D48" t="s">
         <v>110</v>
       </c>
-      <c r="E48">
-        <v>10047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10048</v>
       </c>
@@ -2314,11 +2171,8 @@
       <c r="D49" t="s">
         <v>113</v>
       </c>
-      <c r="E49">
-        <v>10048</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>114</v>
       </c>
@@ -2328,11 +2182,8 @@
       <c r="D50" t="s">
         <v>116</v>
       </c>
-      <c r="E50">
-        <v>10049</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>117</v>
       </c>
@@ -2342,24 +2193,18 @@
       <c r="D51" t="s">
         <v>119</v>
       </c>
-      <c r="E51">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10051</v>
       </c>
       <c r="B52" t="s">
         <v>120</v>
       </c>
-      <c r="E52">
-        <v>10051</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s">
         <v>121</v>
@@ -2370,11 +2215,8 @@
       <c r="D53" t="s">
         <v>123</v>
       </c>
-      <c r="E53">
-        <v>10052</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>124</v>
       </c>
@@ -2384,11 +2226,8 @@
       <c r="D54" t="s">
         <v>126</v>
       </c>
-      <c r="E54">
-        <v>10053</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>127</v>
       </c>
@@ -2398,33 +2237,24 @@
       <c r="D55" t="s">
         <v>126</v>
       </c>
-      <c r="E55">
-        <v>10054</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>10055</v>
       </c>
       <c r="B56" t="s">
         <v>129</v>
       </c>
-      <c r="E56">
-        <v>10055</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>130</v>
       </c>
       <c r="D57" t="s">
         <v>104</v>
       </c>
-      <c r="E57">
-        <v>10056</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>10057</v>
       </c>
@@ -2437,11 +2267,8 @@
       <c r="D58" t="s">
         <v>29</v>
       </c>
-      <c r="E58">
-        <v>10057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>10058</v>
       </c>
@@ -2451,22 +2278,16 @@
       <c r="C59" t="s">
         <v>134</v>
       </c>
-      <c r="E59">
-        <v>10058</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>135</v>
       </c>
       <c r="D60" t="s">
         <v>136</v>
       </c>
-      <c r="E60">
-        <v>10059</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>10060</v>
       </c>
@@ -2479,11 +2300,8 @@
       <c r="D61" t="s">
         <v>136</v>
       </c>
-      <c r="E61">
-        <v>10060</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>10061</v>
       </c>
@@ -2496,11 +2314,8 @@
       <c r="D62" t="s">
         <v>104</v>
       </c>
-      <c r="E62">
-        <v>10061</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>10062</v>
       </c>
@@ -2510,13 +2325,10 @@
       <c r="D63" t="s">
         <v>142</v>
       </c>
-      <c r="E63">
-        <v>10062</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B64" t="s">
         <v>143</v>
@@ -2527,11 +2339,8 @@
       <c r="D64" t="s">
         <v>145</v>
       </c>
-      <c r="E64">
-        <v>10063</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>146</v>
       </c>
@@ -2541,22 +2350,16 @@
       <c r="D65" t="s">
         <v>49</v>
       </c>
-      <c r="E65">
-        <v>10064</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>148</v>
       </c>
       <c r="D66" t="s">
         <v>149</v>
       </c>
-      <c r="E66">
-        <v>10065</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10066</v>
       </c>
@@ -2569,11 +2372,8 @@
       <c r="D67" t="s">
         <v>152</v>
       </c>
-      <c r="E67">
-        <v>10066</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>153</v>
       </c>
@@ -2583,11 +2383,8 @@
       <c r="D68" t="s">
         <v>136</v>
       </c>
-      <c r="E68">
-        <v>10067</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>10068</v>
       </c>
@@ -2597,11 +2394,8 @@
       <c r="D69" t="s">
         <v>156</v>
       </c>
-      <c r="E69">
-        <v>10068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10069</v>
       </c>
@@ -2614,11 +2408,8 @@
       <c r="D70" t="s">
         <v>119</v>
       </c>
-      <c r="E70">
-        <v>10069</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>227</v>
       </c>
@@ -2628,11 +2419,8 @@
       <c r="D71" t="s">
         <v>160</v>
       </c>
-      <c r="E71">
-        <v>10070</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>161</v>
       </c>
@@ -2642,11 +2430,8 @@
       <c r="D72" t="s">
         <v>163</v>
       </c>
-      <c r="E72">
-        <v>10071</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>164</v>
       </c>
@@ -2656,11 +2441,8 @@
       <c r="D73" t="s">
         <v>39</v>
       </c>
-      <c r="E73">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>10073</v>
       </c>
@@ -2670,22 +2452,16 @@
       <c r="D74" t="s">
         <v>3</v>
       </c>
-      <c r="E74">
-        <v>10073</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>167</v>
       </c>
       <c r="C75" t="s">
         <v>168</v>
       </c>
-      <c r="E75">
-        <v>10074</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>169</v>
       </c>
@@ -2695,11 +2471,8 @@
       <c r="D76" t="s">
         <v>29</v>
       </c>
-      <c r="E76">
-        <v>10075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10076</v>
       </c>
@@ -2712,11 +2485,8 @@
       <c r="D77" t="s">
         <v>173</v>
       </c>
-      <c r="E77">
-        <v>10076</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>223</v>
       </c>
@@ -2726,11 +2496,8 @@
       <c r="D78" t="s">
         <v>39</v>
       </c>
-      <c r="E78">
-        <v>10077</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>175</v>
       </c>
@@ -2740,11 +2507,8 @@
       <c r="D79" t="s">
         <v>177</v>
       </c>
-      <c r="E79">
-        <v>10078</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -2754,11 +2518,8 @@
       <c r="C80" t="s">
         <v>179</v>
       </c>
-      <c r="E80">
-        <v>10079</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>10080</v>
       </c>
@@ -2771,11 +2532,8 @@
       <c r="D81" t="s">
         <v>163</v>
       </c>
-      <c r="E81">
-        <v>10080</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10081</v>
       </c>
@@ -2785,11 +2543,8 @@
       <c r="D82" t="s">
         <v>183</v>
       </c>
-      <c r="E82">
-        <v>10081</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>184</v>
       </c>
@@ -2799,11 +2554,8 @@
       <c r="D83" t="s">
         <v>186</v>
       </c>
-      <c r="E83">
-        <v>10082</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10083</v>
       </c>
@@ -2813,11 +2565,8 @@
       <c r="D84" t="s">
         <v>145</v>
       </c>
-      <c r="E84">
-        <v>10083</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>188</v>
       </c>
@@ -2827,11 +2576,8 @@
       <c r="D85" t="s">
         <v>104</v>
       </c>
-      <c r="E85">
-        <v>10084</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>10085</v>
       </c>
@@ -2841,11 +2587,8 @@
       <c r="D86" t="s">
         <v>49</v>
       </c>
-      <c r="E86">
-        <v>10085</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>10086</v>
       </c>
@@ -2858,11 +2601,8 @@
       <c r="D87" t="s">
         <v>160</v>
       </c>
-      <c r="E87">
-        <v>10086</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10087</v>
       </c>
@@ -2875,22 +2615,16 @@
       <c r="D88" t="s">
         <v>104</v>
       </c>
-      <c r="E88">
-        <v>10087</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>195</v>
       </c>
       <c r="D89" t="s">
         <v>152</v>
       </c>
-      <c r="E89">
-        <v>10088</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10089</v>
       </c>
@@ -2900,11 +2634,8 @@
       <c r="C90" t="s">
         <v>197</v>
       </c>
-      <c r="E90">
-        <v>10089</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>10090</v>
       </c>
@@ -2917,11 +2648,8 @@
       <c r="D91" t="s">
         <v>200</v>
       </c>
-      <c r="E91">
-        <v>10090</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10091</v>
       </c>
@@ -2931,11 +2659,8 @@
       <c r="D92" t="s">
         <v>104</v>
       </c>
-      <c r="E92">
-        <v>10091</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>143</v>
       </c>
@@ -2945,11 +2670,8 @@
       <c r="D93" t="s">
         <v>145</v>
       </c>
-      <c r="E93">
-        <v>10092</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>10093</v>
       </c>
@@ -2962,11 +2684,8 @@
       <c r="D94" t="s">
         <v>116</v>
       </c>
-      <c r="E94">
-        <v>10093</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>10094</v>
       </c>
@@ -2976,22 +2695,16 @@
       <c r="D95" t="s">
         <v>205</v>
       </c>
-      <c r="E95">
-        <v>10094</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>206</v>
       </c>
       <c r="C96" t="s">
         <v>207</v>
       </c>
-      <c r="E96">
-        <v>10095</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10096</v>
       </c>
@@ -3001,11 +2714,8 @@
       <c r="D97" t="s">
         <v>209</v>
       </c>
-      <c r="E97">
-        <v>10096</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>210</v>
       </c>
@@ -3015,11 +2725,8 @@
       <c r="D98" t="s">
         <v>49</v>
       </c>
-      <c r="E98">
-        <v>10097</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -3029,11 +2736,8 @@
       <c r="D99" t="s">
         <v>49</v>
       </c>
-      <c r="E99">
-        <v>10098</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>213</v>
       </c>
@@ -3043,11 +2747,8 @@
       <c r="D100" t="s">
         <v>215</v>
       </c>
-      <c r="E100">
-        <v>10099</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>219</v>
       </c>
@@ -3057,11 +2758,8 @@
       <c r="D101" t="s">
         <v>183</v>
       </c>
-      <c r="E101">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>220</v>
       </c>
@@ -3070,9 +2768,6 @@
       </c>
       <c r="D102" t="s">
         <v>183</v>
-      </c>
-      <c r="E102">
-        <v>10101</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C712BE-A293-5344-BCA3-BB536CED33B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63586851-7718-6449-A592-284DBE907DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="17040" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="226">
   <si>
     <t>Address</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Biotech</t>
   </si>
   <si>
-    <t>Wonka Industrries</t>
-  </si>
-  <si>
     <t>107 Steel St, South Park, C0</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>111 Zink St, Springfield, VT</t>
   </si>
   <si>
-    <t>Finance</t>
-  </si>
-  <si>
     <t>Vandelay Industtries</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>125 Helium St, New New York, NY</t>
   </si>
   <si>
-    <t>Delivery Servicess</t>
-  </si>
-  <si>
     <t>Soylent Corporation</t>
   </si>
   <si>
@@ -377,9 +368,6 @@
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>Verizon Communicatons</t>
-  </si>
-  <si>
     <t>1095 Avnue of the Americas, New York, NY</t>
   </si>
   <si>
@@ -461,9 +449,6 @@
     <t>America Movil</t>
   </si>
   <si>
-    <t>Telecommmunications</t>
-  </si>
-  <si>
     <t>Vale Sociedad Anonima</t>
   </si>
   <si>
@@ -503,18 +488,12 @@
     <t>Grupo Mexico</t>
   </si>
   <si>
-    <t>Conglomarate</t>
-  </si>
-  <si>
     <t>Embraer Sociedad Anonima</t>
   </si>
   <si>
     <t>Av. Brig. Faria Lima, 2170, Sao Jose dos Campso, Brazil</t>
   </si>
   <si>
-    <t>Cemex</t>
-  </si>
-  <si>
     <t>Construction</t>
   </si>
   <si>
@@ -638,9 +617,6 @@
     <t>Chemiacals</t>
   </si>
   <si>
-    <t>Praia de Botafgo, 186, Rio de Janeiro, Brazil</t>
-  </si>
-  <si>
     <t>America Movil Holdings</t>
   </si>
   <si>
@@ -656,18 +632,12 @@
     <t>Grupo Mexmining</t>
   </si>
   <si>
-    <t>Campos Eliseos 400, Lomas de Chapultepec, Mexico Ciy, Mexico</t>
-  </si>
-  <si>
     <t>Banco Bradesco Sociedad Anonima</t>
   </si>
   <si>
     <t>Bank</t>
   </si>
   <si>
-    <t>Banco Santander Brasil</t>
-  </si>
-  <si>
     <t>Av. Presidente Juscelino Kubitshcek, 2041, Sao Paulo, Brazil</t>
   </si>
   <si>
@@ -680,9 +650,6 @@
     <t>Av. Professor Magalhaes Nto, 1752, Salvador, Brazil</t>
   </si>
   <si>
-    <t>Pulp and Paper</t>
-  </si>
-  <si>
     <t>Customer_Name</t>
   </si>
   <si>
@@ -729,13 +696,28 @@
   </si>
   <si>
     <t>10052 Paid off 06/2023</t>
+  </si>
+  <si>
+    <t>Banco Pichincha</t>
+  </si>
+  <si>
+    <t>Quito, Ecuador</t>
+  </si>
+  <si>
+    <t>Av. Libertadores, Monterrey, Mexico</t>
+  </si>
+  <si>
+    <t>Avenida 6 de Diciembre, Quito</t>
+  </si>
+  <si>
+    <t>Petroecuador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -868,6 +850,13 @@
       <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1212,8 +1201,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1589,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1603,23 +1593,23 @@
     <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1631,7 +1621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1645,15 +1635,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10003</v>
-      </c>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1674,8 +1661,18 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1686,7 +1683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1697,9 +1694,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1708,7 +1705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1719,84 +1716,75 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10011</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10013</v>
       </c>
       <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>10014</v>
       </c>
       <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>10015</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1804,21 +1792,21 @@
         <v>10017</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1826,24 +1814,24 @@
         <v>10019</v>
       </c>
       <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1851,21 +1839,21 @@
         <v>10021</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,24 +1861,21 @@
         <v>10023</v>
       </c>
       <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>10024</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1898,21 +1883,18 @@
         <v>10025</v>
       </c>
       <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
         <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1920,24 +1902,21 @@
         <v>10027</v>
       </c>
       <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1945,13 +1924,13 @@
         <v>10029</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1959,15 +1938,15 @@
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -1975,10 +1954,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1986,35 +1965,32 @@
         <v>10033</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>10034</v>
-      </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2022,13 +1998,13 @@
         <v>10036</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2036,32 +2012,29 @@
         <v>10037</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -2072,18 +2045,18 @@
         <v>10040</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2091,24 +2064,24 @@
         <v>10042</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -2119,21 +2092,21 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2141,7 +2114,7 @@
         <v>10046</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2149,49 +2122,40 @@
         <v>10047</v>
       </c>
       <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>109</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>10048</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
         <v>111</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2199,43 +2163,40 @@
         <v>10051</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2243,15 +2204,15 @@
         <v>10055</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2259,13 +2220,13 @@
         <v>10057</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2273,18 +2234,18 @@
         <v>10058</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2292,13 +2253,13 @@
         <v>10060</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2306,57 +2267,51 @@
         <v>10061</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>10062</v>
-      </c>
       <c r="B63" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2364,24 +2319,24 @@
         <v>10066</v>
       </c>
       <c r="B67" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2389,10 +2344,7 @@
         <v>10068</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
-      </c>
-      <c r="D69" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2400,46 +2352,40 @@
         <v>10069</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>227</v>
-      </c>
-      <c r="B71" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
-      </c>
-      <c r="D72" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2447,7 +2393,7 @@
         <v>10073</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -2455,21 +2401,21 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2477,46 +2423,46 @@
         <v>10076</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D77" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2524,13 +2470,13 @@
         <v>10080</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2538,21 +2484,21 @@
         <v>10081</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2560,21 +2506,18 @@
         <v>10083</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
-      </c>
-      <c r="D84" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2582,24 +2525,21 @@
         <v>10085</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>10086</v>
-      </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2607,21 +2547,18 @@
         <v>10087</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D89" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2629,10 +2566,10 @@
         <v>10089</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2640,35 +2577,32 @@
         <v>10090</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D91" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>10091</v>
-      </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>225</v>
+      </c>
+      <c r="C92" t="s">
+        <v>224</v>
       </c>
       <c r="D92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="C93" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2676,13 +2610,13 @@
         <v>10093</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D94" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2690,18 +2624,18 @@
         <v>10094</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2709,68 +2643,110 @@
         <v>10096</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>210</v>
-      </c>
       <c r="C98" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
-      </c>
-      <c r="D100" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C102" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="I7:I11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P7:P10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63586851-7718-6449-A592-284DBE907DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D1DEB-7E7F-2C4A-9DEE-303D4944B01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="17040" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="18760" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
   <sheets>
     <sheet name="Secondary_Data" sheetId="1" r:id="rId1"/>
@@ -698,9 +698,6 @@
     <t>10052 Paid off 06/2023</t>
   </si>
   <si>
-    <t>Banco Pichincha</t>
-  </si>
-  <si>
     <t>Quito, Ecuador</t>
   </si>
   <si>
@@ -711,6 +708,9 @@
   </si>
   <si>
     <t>Petroecuador</t>
+  </si>
+  <si>
+    <t>Banco Pichincha S.A de C.V.</t>
   </si>
 </sst>
 </file>
@@ -1581,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="133" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2230,9 +2230,6 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>10058</v>
-      </c>
       <c r="B59" t="s">
         <v>129</v>
       </c>
@@ -2588,10 +2585,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
         <v>101</v>
@@ -2599,10 +2596,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
+        <v>225</v>
+      </c>
+      <c r="C93" t="s">
         <v>221</v>
-      </c>
-      <c r="C93" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2635,7 +2632,7 @@
         <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D1DEB-7E7F-2C4A-9DEE-303D4944B01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271370A2-8612-2140-9661-A5A23E68AD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="18760" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="223">
   <si>
     <t>Address</t>
   </si>
@@ -657,15 +657,6 @@
   </si>
   <si>
     <t>Customer_ID</t>
-  </si>
-  <si>
-    <t>Flat Ridge 4 Wind, LLC</t>
-  </si>
-  <si>
-    <t>Flat Ridges 5 Wind Energy, LLC</t>
-  </si>
-  <si>
-    <t>ONE SOUTH WACKER DRIVE SUITE 1800, Chicago, USA</t>
   </si>
   <si>
     <t>10008 - Ticklers</t>
@@ -1579,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
-  <dimension ref="A1:P102"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="133" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="C72" zoomScale="133" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1600,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1696,7 +1687,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -1825,7 +1816,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
@@ -2075,7 +2066,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
         <v>98</v>
@@ -2168,7 +2159,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B53" t="s">
         <v>117</v>
@@ -2280,7 +2271,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B64" t="s">
         <v>138</v>
@@ -2360,7 +2351,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D71" t="s">
         <v>153</v>
@@ -2431,7 +2422,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
         <v>167</v>
@@ -2453,7 +2444,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B80" t="s">
         <v>171</v>
@@ -2585,10 +2576,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D92" t="s">
         <v>101</v>
@@ -2596,10 +2587,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2632,7 +2623,7 @@
         <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,7 +2647,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B99" t="s">
         <v>202</v>
@@ -2671,28 +2662,6 @@
       </c>
       <c r="C100" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>208</v>
-      </c>
-      <c r="C101" t="s">
-        <v>210</v>
-      </c>
-      <c r="D101" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" t="s">
-        <v>210</v>
-      </c>
-      <c r="D102" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271370A2-8612-2140-9661-A5A23E68AD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E9328-BAD7-754A-BD5D-D00B9871FB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="18760" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFB6895-9A04-6049-B5A1-FDE83B8B650E}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C72" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Sample_Dataset/Secondary_Data.xlsx
+++ b/Sample_Dataset/Secondary_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luislascano01/Documents/Sabadell/Covenants_Matching/AI_VLookUp/Sample_Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3E9328-BAD7-754A-BD5D-D00B9871FB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5B9921-8A3E-7546-906A-08729EC5C7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="18760" windowHeight="21260" xr2:uid="{25B03F2D-6921-FE47-B100-68C77C13EED2}"/>
   </bookViews>
